--- a/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 26,33</t>
+          <t>6,04; 26,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 28,09</t>
+          <t>5,48; 29,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 13,0</t>
+          <t>-9,52; 12,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 13,03</t>
+          <t>-7,38; 13,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,62; 308,04</t>
+          <t>30,1; 325,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,98; 272,03</t>
+          <t>22,9; 250,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 73,09</t>
+          <t>-33,71; 73,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 72,6</t>
+          <t>-24,04; 73,77</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,28</t>
+          <t>3,8; 12,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 14,01</t>
+          <t>4,44; 14,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 16,16</t>
+          <t>6,97; 16,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 8,79</t>
+          <t>-0,17; 8,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 98,78</t>
+          <t>24,24; 112,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,03; 97,6</t>
+          <t>22,41; 99,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,81; 136,5</t>
+          <t>43,51; 137,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 64,74</t>
+          <t>-1,0; 60,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 13,47</t>
+          <t>6,38; 13,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 12,63</t>
+          <t>5,09; 12,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,36</t>
+          <t>6,37; 13,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 11,59</t>
+          <t>-8,04; 11,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,29; 115,74</t>
+          <t>43,45; 118,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,93; 85,34</t>
+          <t>27,75; 87,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,11; 104,3</t>
+          <t>39,88; 101,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 98,4</t>
+          <t>-27,58; 95,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 13,74</t>
+          <t>5,3; 13,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,57</t>
+          <t>6,65; 14,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,51</t>
+          <t>3,59; 11,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,14</t>
+          <t>-6,48; 6,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,01; 101,48</t>
+          <t>28,57; 103,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,82; 134,71</t>
+          <t>45,87; 137,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,71; 92,76</t>
+          <t>23,57; 95,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 36,0</t>
+          <t>-31,04; 34,87</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,43</t>
+          <t>5,39; 12,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 14,91</t>
+          <t>6,93; 14,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,73</t>
+          <t>2,7; 9,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,05</t>
+          <t>5,61; 12,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,15; 99,43</t>
+          <t>33,1; 92,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,46; 103,65</t>
+          <t>36,5; 103,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,99; 76,27</t>
+          <t>17,04; 75,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,82; 86,46</t>
+          <t>32,76; 87,96</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,41</t>
+          <t>7,43; 11,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,15</t>
+          <t>8,06; 12,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,18</t>
+          <t>6,34; 10,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,84</t>
+          <t>1,24; 7,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,21; 86,49</t>
+          <t>50,66; 86,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,41; 82,62</t>
+          <t>48,48; 83,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,6; 74,22</t>
+          <t>40,93; 73,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 51,06</t>
+          <t>2,01; 50,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 26,73</t>
+          <t>4,93; 25,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 29,06</t>
+          <t>5,78; 28,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 12,77</t>
+          <t>-9,15; 13,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,1; 325,38</t>
+          <t>25,63; 303,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,9; 250,73</t>
+          <t>28,44; 251,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 73,93</t>
+          <t>-32,65; 84,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 12,9</t>
+          <t>3,82; 12,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 14,09</t>
+          <t>4,58; 14,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 16,18</t>
+          <t>6,82; 16,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,24; 112,28</t>
+          <t>23,55; 104,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,41; 99,95</t>
+          <t>24,09; 103,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,51; 137,0</t>
+          <t>42,01; 143,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 13,37</t>
+          <t>6,31; 13,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 12,65</t>
+          <t>5,36; 12,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 13,35</t>
+          <t>6,63; 13,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,45; 118,05</t>
+          <t>41,06; 120,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,75; 87,04</t>
+          <t>28,97; 82,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,88; 101,56</t>
+          <t>42,34; 109,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 13,76</t>
+          <t>4,83; 13,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 14,63</t>
+          <t>6,53; 14,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 11,64</t>
+          <t>3,48; 11,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,57; 103,81</t>
+          <t>25,12; 97,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,87; 137,47</t>
+          <t>43,38; 139,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,57; 95,05</t>
+          <t>21,6; 93,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 12,01</t>
+          <t>5,81; 12,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,81</t>
+          <t>6,87; 14,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,61</t>
+          <t>3,23; 10,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,1; 92,8</t>
+          <t>36,64; 101,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,5; 103,11</t>
+          <t>37,18; 96,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,04; 75,0</t>
+          <t>19,37; 80,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,11</t>
+          <t>7,29; 10,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,1</t>
+          <t>8,33; 12,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,12</t>
+          <t>6,46; 10,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,66; 86,13</t>
+          <t>48,76; 83,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,48; 83,32</t>
+          <t>50,52; 82,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,93; 73,56</t>
+          <t>41,66; 75,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 25,97</t>
+          <t>5,76; 26,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 28,18</t>
+          <t>5,28; 28,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 13,82</t>
+          <t>-10,19; 13,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 13,11</t>
+          <t>-7,81; 13,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,63; 303,7</t>
+          <t>22,62; 308,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,44; 251,32</t>
+          <t>27,98; 272,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 84,51</t>
+          <t>-36,14; 73,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 73,77</t>
+          <t>-24,51; 72,6</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 12,58</t>
+          <t>4,03; 12,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 14,36</t>
+          <t>4,78; 14,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 16,28</t>
+          <t>6,86; 16,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 8,39</t>
+          <t>0,37; 8,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,55; 104,93</t>
+          <t>23,82; 98,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,09; 103,0</t>
+          <t>24,03; 97,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,01; 143,81</t>
+          <t>41,81; 136,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 60,27</t>
+          <t>2,02; 64,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 13,61</t>
+          <t>6,35; 13,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,41</t>
+          <t>4,91; 12,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 13,88</t>
+          <t>6,1; 13,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 11,34</t>
+          <t>-7,79; 11,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,06; 120,33</t>
+          <t>43,29; 115,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,97; 82,28</t>
+          <t>26,93; 85,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,34; 109,59</t>
+          <t>38,11; 104,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 95,79</t>
+          <t>-30,58; 98,4</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 13,28</t>
+          <t>4,73; 13,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,9</t>
+          <t>6,64; 14,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 11,51</t>
+          <t>3,49; 11,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 6,01</t>
+          <t>-6,04; 6,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,12; 97,47</t>
+          <t>26,01; 101,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,38; 139,38</t>
+          <t>43,82; 134,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 93,38</t>
+          <t>22,71; 92,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 34,87</t>
+          <t>-31,19; 36,0</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,43</t>
+          <t>5,43; 12,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,87; 14,24</t>
+          <t>7,24; 14,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 10,22</t>
+          <t>3,18; 9,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,02</t>
+          <t>5,53; 12,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,64; 101,81</t>
+          <t>36,15; 99,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,18; 96,78</t>
+          <t>39,46; 103,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,37; 80,51</t>
+          <t>19,99; 76,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,76; 87,96</t>
+          <t>31,82; 86,46</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,9</t>
+          <t>7,68; 11,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,05</t>
+          <t>8,29; 12,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,27</t>
+          <t>6,29; 10,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,84</t>
+          <t>0,5; 7,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>48,76; 83,12</t>
+          <t>52,21; 86,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,52; 82,76</t>
+          <t>49,41; 82,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,66; 75,91</t>
+          <t>41,6; 74,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 50,76</t>
+          <t>-0,37; 51,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,15</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,99</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>124,6%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>109,81%</t>
+          <t>65,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>62,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>23,12%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 26,33</t>
+          <t>5,79; 13,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 28,09</t>
+          <t>6,07; 15,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 13,0</t>
+          <t>4,96; 13,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 13,03</t>
+          <t>-1,43; 7,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,62; 308,04</t>
+          <t>36,07; 111,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,98; 272,03</t>
+          <t>33,0; 105,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 73,09</t>
+          <t>26,91; 101,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 72,6</t>
+          <t>-7,12; 49,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,55</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>54,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>83,43%</t>
+          <t>69,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>-24,27%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,28</t>
+          <t>6,35; 13,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 14,01</t>
+          <t>4,91; 12,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 16,16</t>
+          <t>6,1; 13,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 8,79</t>
+          <t>-41,62; 11,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 98,78</t>
+          <t>43,29; 115,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,03; 97,6</t>
+          <t>26,93; 85,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,81; 136,5</t>
+          <t>38,11; 104,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 64,74</t>
+          <t>-65,61; 105,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>84,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>69,22%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>-6,6%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 13,47</t>
+          <t>4,73; 13,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 12,63</t>
+          <t>6,64; 14,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,36</t>
+          <t>3,49; 11,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 11,59</t>
+          <t>-10,39; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,29; 115,74</t>
+          <t>26,01; 101,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,93; 85,34</t>
+          <t>43,82; 134,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,11; 104,3</t>
+          <t>22,71; 92,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 98,4</t>
+          <t>-50,92; 27,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,64%</t>
+          <t>65,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>48,51%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 13,74</t>
+          <t>5,43; 12,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,57</t>
+          <t>7,24; 14,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,51</t>
+          <t>3,18; 9,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,14</t>
+          <t>2,88; 10,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,01; 101,48</t>
+          <t>36,15; 99,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,82; 134,71</t>
+          <t>39,46; 103,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,71; 92,76</t>
+          <t>19,99; 76,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 36,0</t>
+          <t>18,42; 79,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>66,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>65,19%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>-1,75%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,43</t>
+          <t>7,68; 11,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 14,91</t>
+          <t>8,29; 12,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,73</t>
+          <t>6,29; 10,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,05</t>
+          <t>-20,52; 6,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,15; 99,43</t>
+          <t>52,21; 86,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,46; 103,65</t>
+          <t>49,41; 82,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,99; 76,27</t>
+          <t>41,6; 74,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,82; 86,46</t>
+          <t>-52,18; 43,71</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,32</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,18</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>66,93%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>65,39%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>57,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>32,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,68; 11,41</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 12,15</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,29; 10,18</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 7,84</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>52,21; 86,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>49,41; 82,62</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>41,6; 74,22</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 51,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 13,35</t>
+          <t>5,41; 13,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 15,01</t>
+          <t>6,31; 15,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,97</t>
+          <t>5,39; 14,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 7,72</t>
+          <t>-1,05; 7,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,07; 111,6</t>
+          <t>36,47; 112,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,0; 105,61</t>
+          <t>34,13; 108,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,91; 101,0</t>
+          <t>31,11; 105,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 49,63</t>
+          <t>-4,82; 52,41</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 13,47</t>
+          <t>6,64; 13,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 12,63</t>
+          <t>5,25; 12,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,36</t>
+          <t>6,52; 13,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,62; 11,81</t>
+          <t>-40,14; 11,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,29; 115,74</t>
+          <t>45,16; 118,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,93; 85,34</t>
+          <t>28,19; 84,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,11; 104,3</t>
+          <t>40,78; 107,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 105,1</t>
+          <t>-65,34; 99,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 13,74</t>
+          <t>4,81; 13,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,57</t>
+          <t>6,46; 14,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,51</t>
+          <t>3,64; 11,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 4,84</t>
+          <t>-10,25; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,01; 101,48</t>
+          <t>26,61; 101,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,82; 134,71</t>
+          <t>44,2; 138,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 92,76</t>
+          <t>22,07; 90,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 27,67</t>
+          <t>-52,49; 30,46</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,43</t>
+          <t>5,56; 12,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 14,91</t>
+          <t>6,6; 14,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,73</t>
+          <t>2,92; 9,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 10,76</t>
+          <t>2,68; 10,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,15; 99,43</t>
+          <t>35,23; 97,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,46; 103,65</t>
+          <t>34,96; 98,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 76,27</t>
+          <t>17,26; 78,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,42; 79,39</t>
+          <t>18,09; 78,75</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,41</t>
+          <t>7,52; 11,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,15</t>
+          <t>8,1; 12,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,18</t>
+          <t>6,43; 10,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 6,7</t>
+          <t>-20,54; 6,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,21; 86,49</t>
+          <t>50,68; 84,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,41; 82,62</t>
+          <t>47,81; 82,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,6; 74,22</t>
+          <t>42,05; 73,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-52,18; 43,71</t>
+          <t>-51,74; 42,99</t>
         </is>
       </c>
     </row>
